--- a/project2/servo calibration-workdelta.xlsx
+++ b/project2/servo calibration-workdelta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="10785" windowHeight="6765" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="10785" windowHeight="6765"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -193,7 +193,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="182" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -663,6 +663,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,11 +698,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2424,6 +2424,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>writeMicroseconds()</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Input [nominal microseconds]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2486,6 +2546,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Encoder Window Passing Time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -18659,8 +18774,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Full Dataset</a:t>
+              <a:t>Right-Hand Servo Window-Passing Speeds as a</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Function of writeMicroseconds() Input</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -19815,6 +19935,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>writeMicroseconds() Input [nominal microseconds]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -19877,6 +20052,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Encoder Window Passing Time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -28934,34 +29164,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -29007,11 +29237,11 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -29068,10 +29298,6 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <f>1/C10</f>
-        <v>0.3143418467583497</v>
-      </c>
       <c r="D14">
         <f>1/D10</f>
         <v>0.24160425223483931</v>
@@ -38391,8 +38617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T173"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47696,7 +47922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -47806,15 +48032,15 @@
       <c r="D15">
         <v>1.4841999999999999E-2</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="31">
         <f>M14/1000</f>
         <v>8.4457213639999986E-5</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="31">
         <f t="shared" ref="N15:O15" si="0">N14/1000</f>
         <v>7.7121703560000003E-3</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="31">
         <f t="shared" si="0"/>
         <v>1.4842E-5</v>
       </c>
@@ -47823,7 +48049,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
@@ -47841,7 +48067,7 @@
         <f>B21*233.4</f>
         <v>519.59508000000005</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="30" t="s">
         <v>29</v>
       </c>
     </row>

--- a/project2/servo calibration-workdelta.xlsx
+++ b/project2/servo calibration-workdelta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="10785" windowHeight="6765"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="10785" windowHeight="6765" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t xml:space="preserve"> Measured T Pass</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Ki</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -29164,7 +29167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -29274,8 +29277,8 @@
       <c r="C10" s="14">
         <v>3.1812500000000004</v>
       </c>
-      <c r="D10" s="5">
-        <v>4.1390000000000002</v>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29">
@@ -29298,9 +29301,9 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="D14" t="e">
         <f>1/D10</f>
-        <v>0.24160425223483931</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -47922,7 +47925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
